--- a/tests/tests.xlsx
+++ b/tests/tests.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adrian\Downloads\excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adrian\survey-xai-app\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC22DC3-7ED0-417D-9DBA-5022EE04C857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{146627CF-5D64-43E5-8FA3-C1FA4D714B1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="6" xr2:uid="{F119512E-6E97-4A93-97E7-96F4D5038641}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{F119512E-6E97-4A93-97E7-96F4D5038641}"/>
   </bookViews>
   <sheets>
     <sheet name="test 1" sheetId="1" r:id="rId1"/>
@@ -260,7 +260,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="59">
   <si>
     <t>question</t>
   </si>
@@ -711,39 +711,17 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -757,6 +735,28 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1241,10 +1241,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93378083-60B0-44B0-BE74-4E649BAB3E63}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:S22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1252,7 +1252,7 @@
     <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1262,75 +1262,390 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="14">
+      <c r="E1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="R1" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="S1" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="44" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="14">
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2">
+        <v>3</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>3</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="11">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="44" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="14">
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>3</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="11">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="44" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="14">
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>20</v>
+      </c>
+      <c r="I4">
+        <v>4</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="11">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="44" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="14">
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>20</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>3</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="11">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="44" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="14">
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>14</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>2</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="11">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="44" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="14">
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>14</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>2</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="11">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1339,9 +1654,54 @@
       <c r="C8" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="14">
+      <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>4</v>
+      </c>
+      <c r="J8">
+        <v>4</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>2</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="11">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1350,9 +1710,54 @@
       <c r="C9" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="14">
+      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>4</v>
+      </c>
+      <c r="J9">
+        <v>4</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>2</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="11">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1361,9 +1766,54 @@
       <c r="C10" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="14">
+      <c r="E10">
+        <v>9</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>2</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="11">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1372,9 +1822,54 @@
       <c r="C11" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="14">
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>2</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1383,9 +1878,54 @@
       <c r="C12" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="14">
+      <c r="E12">
+        <v>11</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <v>12</v>
+      </c>
+      <c r="I12">
+        <v>4</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>2</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="11">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="S12" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1394,9 +1934,54 @@
       <c r="C13" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="14">
+      <c r="E13">
+        <v>12</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="H13">
+        <v>12</v>
+      </c>
+      <c r="I13">
+        <v>4</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>2</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="11">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="S13" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1405,9 +1990,54 @@
       <c r="C14" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="14">
+      <c r="E14">
+        <v>13</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+      <c r="J14">
+        <v>4</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>3</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="11">
+        <v>2</v>
+      </c>
+      <c r="R14">
+        <v>1</v>
+      </c>
+      <c r="S14" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1416,9 +2046,54 @@
       <c r="C15" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="14">
+      <c r="E15">
+        <v>14</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="J15">
+        <v>4</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>3</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="11">
+        <v>3</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1427,9 +2102,54 @@
       <c r="C16" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="14">
+      <c r="E16">
+        <v>15</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <v>14</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>2</v>
+      </c>
+      <c r="M16">
+        <v>2</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="11">
+        <v>2</v>
+      </c>
+      <c r="R16">
+        <v>1</v>
+      </c>
+      <c r="S16" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1438,9 +2158,54 @@
       <c r="C17" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="14">
+      <c r="E17">
+        <v>16</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <v>14</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>2</v>
+      </c>
+      <c r="M17">
+        <v>2</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="11">
+        <v>3</v>
+      </c>
+      <c r="R17">
+        <v>1</v>
+      </c>
+      <c r="S17" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1449,9 +2214,54 @@
       <c r="C18" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="14">
+      <c r="E18">
+        <v>17</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
+      <c r="H18">
+        <v>19</v>
+      </c>
+      <c r="I18">
+        <v>4</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="11">
+        <v>2</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="S18" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1460,45 +2270,123 @@
       <c r="C19" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="14">
+      <c r="E19">
+        <v>18</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19">
+        <v>3</v>
+      </c>
+      <c r="H19">
         <v>19</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="I19">
+        <v>4</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>2</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="11">
+        <v>3</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+      <c r="S19" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="44" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="14">
+      <c r="E20">
+        <v>19</v>
+      </c>
+      <c r="F20">
+        <v>4</v>
+      </c>
+      <c r="Q20" s="11">
+        <v>5</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="15"/>
-      <c r="B22" s="14" t="s">
+      <c r="E21">
+        <v>20</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="11">
+        <v>4</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B22" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="15"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
+      <c r="E22">
+        <v>21</v>
+      </c>
+      <c r="F22">
+        <v>5</v>
+      </c>
+      <c r="Q22" s="11">
+        <v>6</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1507,10 +2395,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5536930C-430A-40D3-9300-8CFE8B61324D}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E1" sqref="E1:S22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1518,7 +2406,7 @@
     <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1528,75 +2416,390 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="14">
+      <c r="E1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="R1" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="S1" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="44" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="14">
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2">
+        <v>3</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>3</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="11">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="44" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="14">
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>3</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="11">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="44" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="14">
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>20</v>
+      </c>
+      <c r="I4">
         <v>4</v>
       </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="11">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="44" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="14">
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>20</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>3</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="11">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="44" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="14">
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>14</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>2</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="11">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="44" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="14">
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>14</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>2</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="11">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1605,9 +2808,54 @@
       <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="14">
+      <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>4</v>
+      </c>
+      <c r="J8">
+        <v>4</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>2</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="11">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1616,9 +2864,54 @@
       <c r="C9" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="14">
+      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>4</v>
+      </c>
+      <c r="J9">
+        <v>4</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>2</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="11">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1627,9 +2920,54 @@
       <c r="C10" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="14">
+      <c r="E10">
+        <v>9</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>2</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="11">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1638,9 +2976,54 @@
       <c r="C11" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="14">
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>2</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1649,9 +3032,54 @@
       <c r="C12" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="14">
+      <c r="E12">
+        <v>11</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <v>12</v>
+      </c>
+      <c r="I12">
+        <v>4</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>2</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="11">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="S12" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1660,9 +3088,54 @@
       <c r="C13" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="14">
+      <c r="E13">
+        <v>12</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="H13">
+        <v>12</v>
+      </c>
+      <c r="I13">
+        <v>4</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>2</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="11">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="S13" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1671,9 +3144,54 @@
       <c r="C14" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="14">
+      <c r="E14">
+        <v>13</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+      <c r="J14">
+        <v>4</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>3</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="11">
+        <v>3</v>
+      </c>
+      <c r="R14">
+        <v>1</v>
+      </c>
+      <c r="S14" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1682,9 +3200,54 @@
       <c r="C15" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="14">
+      <c r="E15">
+        <v>14</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="J15">
+        <v>4</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>3</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="11">
+        <v>2</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1693,9 +3256,54 @@
       <c r="C16" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="14">
+      <c r="E16">
+        <v>15</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <v>14</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>2</v>
+      </c>
+      <c r="M16">
+        <v>2</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="11">
+        <v>3</v>
+      </c>
+      <c r="R16">
+        <v>1</v>
+      </c>
+      <c r="S16" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1704,9 +3312,54 @@
       <c r="C17" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="14">
+      <c r="E17">
+        <v>16</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <v>14</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>2</v>
+      </c>
+      <c r="M17">
+        <v>2</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="11">
+        <v>2</v>
+      </c>
+      <c r="R17">
+        <v>1</v>
+      </c>
+      <c r="S17" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1715,9 +3368,54 @@
       <c r="C18" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="14">
+      <c r="E18">
+        <v>17</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
+      <c r="H18">
+        <v>19</v>
+      </c>
+      <c r="I18">
+        <v>4</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="11">
+        <v>3</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="S18" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1726,45 +3424,124 @@
       <c r="C19" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="14">
+      <c r="E19">
+        <v>18</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19">
+        <v>3</v>
+      </c>
+      <c r="H19">
+        <v>19</v>
+      </c>
+      <c r="I19">
+        <v>4</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>2</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="11">
+        <v>2</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+      <c r="S19" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="44" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="14">
+      <c r="E20">
+        <v>19</v>
+      </c>
+      <c r="F20">
+        <v>4</v>
+      </c>
+      <c r="Q20" s="11">
+        <v>4</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="44" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="15"/>
+      <c r="E21">
+        <v>20</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="11">
+        <v>5</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B22" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="15"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
+      <c r="C22" s="45"/>
+      <c r="E22">
+        <v>21</v>
+      </c>
+      <c r="F22">
+        <v>5</v>
+      </c>
+      <c r="Q22" s="11">
+        <v>6</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1773,10 +3550,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15B911FD-531D-4E09-AE4A-D7959C7B7F94}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:B22"/>
+      <selection activeCell="E1" sqref="E1:S22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1784,7 +3561,7 @@
     <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1794,75 +3571,390 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="14">
+      <c r="E1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="R1" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="S1" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="44" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="14">
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2">
+        <v>3</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>3</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="11">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="44" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="14">
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>3</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="11">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="44" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="14">
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>20</v>
+      </c>
+      <c r="I4">
+        <v>4</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="11">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="44" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="14">
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>20</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>3</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="11">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="44" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="14">
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>14</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>2</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="11">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="44" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="14">
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>14</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>2</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="11">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1871,9 +3963,54 @@
       <c r="C8" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="14">
+      <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>4</v>
+      </c>
+      <c r="J8">
+        <v>4</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>2</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="11">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1882,9 +4019,54 @@
       <c r="C9" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="14">
+      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>4</v>
+      </c>
+      <c r="J9">
+        <v>4</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>2</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="11">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1893,9 +4075,54 @@
       <c r="C10" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="14">
+      <c r="E10">
+        <v>9</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>2</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="11">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1904,9 +4131,54 @@
       <c r="C11" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="14">
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>2</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1915,9 +4187,54 @@
       <c r="C12" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="14">
+      <c r="E12">
+        <v>11</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <v>12</v>
+      </c>
+      <c r="I12">
+        <v>4</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>2</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="11">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="S12" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1926,9 +4243,54 @@
       <c r="C13" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="14">
+      <c r="E13">
+        <v>12</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="H13">
+        <v>12</v>
+      </c>
+      <c r="I13">
+        <v>4</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>2</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="11">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="S13" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1937,9 +4299,54 @@
       <c r="C14" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="14">
+      <c r="E14">
+        <v>13</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+      <c r="J14">
+        <v>4</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>3</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="11">
+        <v>2</v>
+      </c>
+      <c r="R14">
+        <v>1</v>
+      </c>
+      <c r="S14" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1948,9 +4355,54 @@
       <c r="C15" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="14">
+      <c r="E15">
+        <v>14</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="J15">
+        <v>4</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>3</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="11">
+        <v>2</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1959,9 +4411,54 @@
       <c r="C16" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="14">
+      <c r="E16">
+        <v>15</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <v>14</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>2</v>
+      </c>
+      <c r="M16">
+        <v>2</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="11">
+        <v>3</v>
+      </c>
+      <c r="R16">
+        <v>1</v>
+      </c>
+      <c r="S16" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1970,9 +4467,54 @@
       <c r="C17" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="14">
+      <c r="E17">
+        <v>16</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <v>14</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>2</v>
+      </c>
+      <c r="M17">
+        <v>2</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="11">
+        <v>3</v>
+      </c>
+      <c r="R17">
+        <v>1</v>
+      </c>
+      <c r="S17" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1981,9 +4523,54 @@
       <c r="C18" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="14">
+      <c r="E18">
+        <v>17</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
+      <c r="H18">
+        <v>19</v>
+      </c>
+      <c r="I18">
+        <v>4</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="11">
+        <v>2</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="S18" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1992,45 +4579,125 @@
       <c r="C19" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="14">
+      <c r="E19">
+        <v>18</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19">
+        <v>3</v>
+      </c>
+      <c r="H19">
+        <v>19</v>
+      </c>
+      <c r="I19">
+        <v>4</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>2</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="11">
+        <v>2</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+      <c r="S19" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="44" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="14">
+      <c r="E20">
+        <v>19</v>
+      </c>
+      <c r="F20">
+        <v>4</v>
+      </c>
+      <c r="Q20" s="11">
+        <v>5</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="44" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="14"/>
+      <c r="E21">
+        <v>20</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="11">
+        <v>5</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
       <c r="B22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="14"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
+      <c r="C22" s="44"/>
+      <c r="E22">
+        <v>21</v>
+      </c>
+      <c r="F22">
+        <v>5</v>
+      </c>
+      <c r="Q22" s="11">
+        <v>6</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5879,7 +8546,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA7C80BA-80A9-4686-AA3A-1C383010AC0B}">
   <dimension ref="A1:W21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T1" sqref="T1:U1"/>
     </sheetView>
   </sheetViews>
@@ -5957,1318 +8624,1318 @@
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="18">
-        <v>1</v>
-      </c>
-      <c r="D2" s="19">
-        <v>2</v>
-      </c>
-      <c r="E2" s="20">
-        <v>1</v>
-      </c>
-      <c r="F2" s="18">
-        <v>0</v>
-      </c>
-      <c r="G2" s="18">
-        <v>0</v>
-      </c>
-      <c r="H2" s="18">
-        <v>0</v>
-      </c>
-      <c r="I2" s="18">
-        <v>0</v>
-      </c>
-      <c r="J2" s="18">
-        <v>0</v>
-      </c>
-      <c r="K2" s="18">
-        <v>0</v>
-      </c>
-      <c r="L2" s="18">
-        <v>0</v>
-      </c>
-      <c r="M2" s="18">
-        <v>0</v>
-      </c>
-      <c r="N2" s="18">
-        <v>0</v>
-      </c>
-      <c r="O2" s="18">
-        <v>0</v>
-      </c>
-      <c r="P2" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="18">
-        <v>0</v>
-      </c>
-      <c r="R2" s="18">
-        <v>0</v>
-      </c>
-      <c r="S2" s="18">
-        <v>0</v>
-      </c>
-      <c r="T2" s="18">
-        <v>0</v>
-      </c>
-      <c r="U2" s="21">
-        <v>0</v>
-      </c>
-      <c r="V2" s="22" t="e" vm="1">
+      <c r="C2" s="14">
+        <v>1</v>
+      </c>
+      <c r="D2" s="15">
+        <v>2</v>
+      </c>
+      <c r="E2" s="16">
+        <v>1</v>
+      </c>
+      <c r="F2" s="14">
+        <v>0</v>
+      </c>
+      <c r="G2" s="14">
+        <v>0</v>
+      </c>
+      <c r="H2" s="14">
+        <v>0</v>
+      </c>
+      <c r="I2" s="14">
+        <v>0</v>
+      </c>
+      <c r="J2" s="14">
+        <v>0</v>
+      </c>
+      <c r="K2" s="14">
+        <v>0</v>
+      </c>
+      <c r="L2" s="14">
+        <v>0</v>
+      </c>
+      <c r="M2" s="14">
+        <v>0</v>
+      </c>
+      <c r="N2" s="14">
+        <v>0</v>
+      </c>
+      <c r="O2" s="14">
+        <v>0</v>
+      </c>
+      <c r="P2" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="14">
+        <v>0</v>
+      </c>
+      <c r="R2" s="14">
+        <v>0</v>
+      </c>
+      <c r="S2" s="14">
+        <v>0</v>
+      </c>
+      <c r="T2" s="14">
+        <v>0</v>
+      </c>
+      <c r="U2" s="17">
+        <v>0</v>
+      </c>
+      <c r="V2" s="18" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="W2" s="22"/>
+      <c r="W2" s="18"/>
     </row>
     <row r="3" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="23"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="25">
-        <v>2</v>
-      </c>
-      <c r="D3" s="26">
-        <v>2</v>
-      </c>
-      <c r="E3" s="27">
-        <v>1</v>
-      </c>
-      <c r="F3" s="25">
-        <v>0</v>
-      </c>
-      <c r="G3" s="25">
-        <v>0</v>
-      </c>
-      <c r="H3" s="25">
-        <v>0</v>
-      </c>
-      <c r="I3" s="25">
-        <v>0</v>
-      </c>
-      <c r="J3" s="25">
-        <v>0</v>
-      </c>
-      <c r="K3" s="25">
-        <v>0</v>
-      </c>
-      <c r="L3" s="25">
-        <v>0</v>
-      </c>
-      <c r="M3" s="25">
-        <v>0</v>
-      </c>
-      <c r="N3" s="25">
-        <v>0</v>
-      </c>
-      <c r="O3" s="25">
-        <v>0</v>
-      </c>
-      <c r="P3" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="25">
-        <v>0</v>
-      </c>
-      <c r="R3" s="25">
-        <v>0</v>
-      </c>
-      <c r="S3" s="25">
-        <v>0</v>
-      </c>
-      <c r="T3" s="25">
-        <v>0</v>
-      </c>
-      <c r="U3" s="28">
-        <v>0</v>
-      </c>
-      <c r="V3" s="22"/>
-      <c r="W3" s="22"/>
+      <c r="A3" s="39"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="19">
+        <v>2</v>
+      </c>
+      <c r="D3" s="20">
+        <v>2</v>
+      </c>
+      <c r="E3" s="21">
+        <v>1</v>
+      </c>
+      <c r="F3" s="19">
+        <v>0</v>
+      </c>
+      <c r="G3" s="19">
+        <v>0</v>
+      </c>
+      <c r="H3" s="19">
+        <v>0</v>
+      </c>
+      <c r="I3" s="19">
+        <v>0</v>
+      </c>
+      <c r="J3" s="19">
+        <v>0</v>
+      </c>
+      <c r="K3" s="19">
+        <v>0</v>
+      </c>
+      <c r="L3" s="19">
+        <v>0</v>
+      </c>
+      <c r="M3" s="19">
+        <v>0</v>
+      </c>
+      <c r="N3" s="19">
+        <v>0</v>
+      </c>
+      <c r="O3" s="19">
+        <v>0</v>
+      </c>
+      <c r="P3" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="19">
+        <v>0</v>
+      </c>
+      <c r="R3" s="19">
+        <v>0</v>
+      </c>
+      <c r="S3" s="19">
+        <v>0</v>
+      </c>
+      <c r="T3" s="19">
+        <v>0</v>
+      </c>
+      <c r="U3" s="22">
+        <v>0</v>
+      </c>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A4" s="23"/>
-      <c r="B4" s="29" t="s">
+      <c r="A4" s="39"/>
+      <c r="B4" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="22">
-        <v>3</v>
-      </c>
-      <c r="D4" s="30">
-        <v>1</v>
-      </c>
-      <c r="E4" s="31">
-        <v>2</v>
-      </c>
-      <c r="F4" s="22">
-        <v>0</v>
-      </c>
-      <c r="G4" s="22">
-        <v>0</v>
-      </c>
-      <c r="H4" s="22">
-        <v>0</v>
-      </c>
-      <c r="I4" s="22">
-        <v>0</v>
-      </c>
-      <c r="J4" s="22">
-        <v>0</v>
-      </c>
-      <c r="K4" s="22">
-        <v>0</v>
-      </c>
-      <c r="L4" s="22">
-        <v>0</v>
-      </c>
-      <c r="M4" s="22">
-        <v>0</v>
-      </c>
-      <c r="N4" s="22">
-        <v>0</v>
-      </c>
-      <c r="O4" s="22">
-        <v>0</v>
-      </c>
-      <c r="P4" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="22">
-        <v>0</v>
-      </c>
-      <c r="R4" s="22">
-        <v>0</v>
-      </c>
-      <c r="S4" s="22">
-        <v>0</v>
-      </c>
-      <c r="T4" s="22">
-        <v>0</v>
-      </c>
-      <c r="U4" s="22">
-        <v>0</v>
-      </c>
-      <c r="V4" s="22" t="e" vm="2">
+      <c r="C4" s="18">
+        <v>3</v>
+      </c>
+      <c r="D4" s="23">
+        <v>1</v>
+      </c>
+      <c r="E4" s="24">
+        <v>2</v>
+      </c>
+      <c r="F4" s="18">
+        <v>0</v>
+      </c>
+      <c r="G4" s="18">
+        <v>0</v>
+      </c>
+      <c r="H4" s="18">
+        <v>0</v>
+      </c>
+      <c r="I4" s="18">
+        <v>0</v>
+      </c>
+      <c r="J4" s="18">
+        <v>0</v>
+      </c>
+      <c r="K4" s="18">
+        <v>0</v>
+      </c>
+      <c r="L4" s="18">
+        <v>0</v>
+      </c>
+      <c r="M4" s="18">
+        <v>0</v>
+      </c>
+      <c r="N4" s="18">
+        <v>0</v>
+      </c>
+      <c r="O4" s="18">
+        <v>0</v>
+      </c>
+      <c r="P4" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="18">
+        <v>0</v>
+      </c>
+      <c r="R4" s="18">
+        <v>0</v>
+      </c>
+      <c r="S4" s="18">
+        <v>0</v>
+      </c>
+      <c r="T4" s="18">
+        <v>0</v>
+      </c>
+      <c r="U4" s="18">
+        <v>0</v>
+      </c>
+      <c r="V4" s="18" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-      <c r="W4" s="22"/>
+      <c r="W4" s="18"/>
     </row>
     <row r="5" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="23"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="22">
+      <c r="A5" s="39"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="18">
         <v>4</v>
       </c>
-      <c r="D5" s="30">
-        <v>1</v>
-      </c>
-      <c r="E5" s="31">
-        <v>2</v>
-      </c>
-      <c r="F5" s="22">
-        <v>0</v>
-      </c>
-      <c r="G5" s="22">
-        <v>0</v>
-      </c>
-      <c r="H5" s="22">
-        <v>0</v>
-      </c>
-      <c r="I5" s="22">
-        <v>0</v>
-      </c>
-      <c r="J5" s="22">
-        <v>0</v>
-      </c>
-      <c r="K5" s="22">
-        <v>0</v>
-      </c>
-      <c r="L5" s="22">
-        <v>0</v>
-      </c>
-      <c r="M5" s="22">
-        <v>0</v>
-      </c>
-      <c r="N5" s="22">
-        <v>0</v>
-      </c>
-      <c r="O5" s="22">
-        <v>0</v>
-      </c>
-      <c r="P5" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="22">
-        <v>0</v>
-      </c>
-      <c r="R5" s="22">
-        <v>0</v>
-      </c>
-      <c r="S5" s="22">
-        <v>0</v>
-      </c>
-      <c r="T5" s="22">
-        <v>0</v>
-      </c>
-      <c r="U5" s="22">
-        <v>0</v>
-      </c>
-      <c r="V5" s="22"/>
-      <c r="W5" s="22"/>
+      <c r="D5" s="23">
+        <v>1</v>
+      </c>
+      <c r="E5" s="24">
+        <v>2</v>
+      </c>
+      <c r="F5" s="18">
+        <v>0</v>
+      </c>
+      <c r="G5" s="18">
+        <v>0</v>
+      </c>
+      <c r="H5" s="18">
+        <v>0</v>
+      </c>
+      <c r="I5" s="18">
+        <v>0</v>
+      </c>
+      <c r="J5" s="18">
+        <v>0</v>
+      </c>
+      <c r="K5" s="18">
+        <v>0</v>
+      </c>
+      <c r="L5" s="18">
+        <v>0</v>
+      </c>
+      <c r="M5" s="18">
+        <v>0</v>
+      </c>
+      <c r="N5" s="18">
+        <v>0</v>
+      </c>
+      <c r="O5" s="18">
+        <v>0</v>
+      </c>
+      <c r="P5" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="18">
+        <v>0</v>
+      </c>
+      <c r="R5" s="18">
+        <v>0</v>
+      </c>
+      <c r="S5" s="18">
+        <v>0</v>
+      </c>
+      <c r="T5" s="18">
+        <v>0</v>
+      </c>
+      <c r="U5" s="18">
+        <v>0</v>
+      </c>
+      <c r="V5" s="18"/>
+      <c r="W5" s="18"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A6" s="23"/>
-      <c r="B6" s="17" t="s">
+      <c r="A6" s="39"/>
+      <c r="B6" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="14">
         <v>5</v>
       </c>
-      <c r="D6" s="19">
-        <v>2</v>
-      </c>
-      <c r="E6" s="20">
-        <v>1</v>
-      </c>
-      <c r="F6" s="18">
-        <v>0</v>
-      </c>
-      <c r="G6" s="18">
-        <v>0</v>
-      </c>
-      <c r="H6" s="18">
-        <v>0</v>
-      </c>
-      <c r="I6" s="18">
-        <v>0</v>
-      </c>
-      <c r="J6" s="18">
-        <v>0</v>
-      </c>
-      <c r="K6" s="18">
-        <v>0</v>
-      </c>
-      <c r="L6" s="18">
-        <v>0</v>
-      </c>
-      <c r="M6" s="18">
-        <v>0</v>
-      </c>
-      <c r="N6" s="18">
-        <v>0</v>
-      </c>
-      <c r="O6" s="18">
-        <v>0</v>
-      </c>
-      <c r="P6" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="18">
-        <v>0</v>
-      </c>
-      <c r="R6" s="18">
-        <v>0</v>
-      </c>
-      <c r="S6" s="18">
-        <v>0</v>
-      </c>
-      <c r="T6" s="18">
-        <v>0</v>
-      </c>
-      <c r="U6" s="21">
-        <v>0</v>
-      </c>
-      <c r="V6" s="22" t="e" vm="3">
+      <c r="D6" s="15">
+        <v>2</v>
+      </c>
+      <c r="E6" s="16">
+        <v>1</v>
+      </c>
+      <c r="F6" s="14">
+        <v>0</v>
+      </c>
+      <c r="G6" s="14">
+        <v>0</v>
+      </c>
+      <c r="H6" s="14">
+        <v>0</v>
+      </c>
+      <c r="I6" s="14">
+        <v>0</v>
+      </c>
+      <c r="J6" s="14">
+        <v>0</v>
+      </c>
+      <c r="K6" s="14">
+        <v>0</v>
+      </c>
+      <c r="L6" s="14">
+        <v>0</v>
+      </c>
+      <c r="M6" s="14">
+        <v>0</v>
+      </c>
+      <c r="N6" s="14">
+        <v>0</v>
+      </c>
+      <c r="O6" s="14">
+        <v>0</v>
+      </c>
+      <c r="P6" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="14">
+        <v>0</v>
+      </c>
+      <c r="R6" s="14">
+        <v>0</v>
+      </c>
+      <c r="S6" s="14">
+        <v>0</v>
+      </c>
+      <c r="T6" s="14">
+        <v>0</v>
+      </c>
+      <c r="U6" s="17">
+        <v>0</v>
+      </c>
+      <c r="V6" s="18" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
-      <c r="W6" s="22"/>
+      <c r="W6" s="18"/>
     </row>
     <row r="7" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="32"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="25">
+      <c r="A7" s="40"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="19">
         <v>6</v>
       </c>
-      <c r="D7" s="26">
-        <v>2</v>
-      </c>
-      <c r="E7" s="27">
-        <v>1</v>
-      </c>
-      <c r="F7" s="25">
-        <v>0</v>
-      </c>
-      <c r="G7" s="25">
-        <v>0</v>
-      </c>
-      <c r="H7" s="25">
-        <v>0</v>
-      </c>
-      <c r="I7" s="25">
-        <v>0</v>
-      </c>
-      <c r="J7" s="25">
-        <v>0</v>
-      </c>
-      <c r="K7" s="25">
-        <v>0</v>
-      </c>
-      <c r="L7" s="25">
-        <v>0</v>
-      </c>
-      <c r="M7" s="25">
-        <v>0</v>
-      </c>
-      <c r="N7" s="25">
-        <v>0</v>
-      </c>
-      <c r="O7" s="25">
-        <v>0</v>
-      </c>
-      <c r="P7" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="25">
-        <v>0</v>
-      </c>
-      <c r="R7" s="25">
-        <v>0</v>
-      </c>
-      <c r="S7" s="25">
-        <v>0</v>
-      </c>
-      <c r="T7" s="25">
-        <v>0</v>
-      </c>
-      <c r="U7" s="28">
-        <v>0</v>
-      </c>
-      <c r="V7" s="22"/>
-      <c r="W7" s="22"/>
+      <c r="D7" s="20">
+        <v>2</v>
+      </c>
+      <c r="E7" s="21">
+        <v>1</v>
+      </c>
+      <c r="F7" s="19">
+        <v>0</v>
+      </c>
+      <c r="G7" s="19">
+        <v>0</v>
+      </c>
+      <c r="H7" s="19">
+        <v>0</v>
+      </c>
+      <c r="I7" s="19">
+        <v>0</v>
+      </c>
+      <c r="J7" s="19">
+        <v>0</v>
+      </c>
+      <c r="K7" s="19">
+        <v>0</v>
+      </c>
+      <c r="L7" s="19">
+        <v>0</v>
+      </c>
+      <c r="M7" s="19">
+        <v>0</v>
+      </c>
+      <c r="N7" s="19">
+        <v>0</v>
+      </c>
+      <c r="O7" s="19">
+        <v>0</v>
+      </c>
+      <c r="P7" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="19">
+        <v>0</v>
+      </c>
+      <c r="R7" s="19">
+        <v>0</v>
+      </c>
+      <c r="S7" s="19">
+        <v>0</v>
+      </c>
+      <c r="T7" s="19">
+        <v>0</v>
+      </c>
+      <c r="U7" s="22">
+        <v>0</v>
+      </c>
+      <c r="V7" s="18"/>
+      <c r="W7" s="18"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="33">
+      <c r="C8" s="25">
         <v>7</v>
       </c>
-      <c r="D8" s="30">
-        <v>1</v>
-      </c>
-      <c r="E8" s="31">
-        <v>2</v>
-      </c>
-      <c r="F8" s="30">
-        <v>1</v>
-      </c>
-      <c r="G8" s="33">
-        <v>0</v>
-      </c>
-      <c r="H8" s="33">
-        <v>0</v>
-      </c>
-      <c r="I8" s="33">
-        <v>0</v>
-      </c>
-      <c r="J8" s="31">
-        <v>1</v>
-      </c>
-      <c r="K8" s="31">
-        <v>1</v>
-      </c>
-      <c r="L8" s="33">
-        <v>0</v>
-      </c>
-      <c r="M8" s="33">
-        <v>0</v>
-      </c>
-      <c r="N8" s="33">
-        <v>0</v>
-      </c>
-      <c r="O8" s="33">
-        <v>0</v>
-      </c>
-      <c r="P8" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="33">
-        <v>0</v>
-      </c>
-      <c r="R8" s="33">
-        <v>0</v>
-      </c>
-      <c r="S8" s="33">
-        <v>0</v>
-      </c>
-      <c r="T8" s="33">
-        <v>0</v>
-      </c>
-      <c r="U8" s="33">
-        <v>0</v>
-      </c>
-      <c r="V8" s="33" t="e" vm="4">
+      <c r="D8" s="23">
+        <v>1</v>
+      </c>
+      <c r="E8" s="24">
+        <v>2</v>
+      </c>
+      <c r="F8" s="23">
+        <v>1</v>
+      </c>
+      <c r="G8" s="25">
+        <v>0</v>
+      </c>
+      <c r="H8" s="25">
+        <v>0</v>
+      </c>
+      <c r="I8" s="25">
+        <v>0</v>
+      </c>
+      <c r="J8" s="24">
+        <v>1</v>
+      </c>
+      <c r="K8" s="24">
+        <v>1</v>
+      </c>
+      <c r="L8" s="25">
+        <v>0</v>
+      </c>
+      <c r="M8" s="25">
+        <v>0</v>
+      </c>
+      <c r="N8" s="25">
+        <v>0</v>
+      </c>
+      <c r="O8" s="25">
+        <v>0</v>
+      </c>
+      <c r="P8" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="25">
+        <v>0</v>
+      </c>
+      <c r="R8" s="25">
+        <v>0</v>
+      </c>
+      <c r="S8" s="25">
+        <v>0</v>
+      </c>
+      <c r="T8" s="25">
+        <v>0</v>
+      </c>
+      <c r="U8" s="25">
+        <v>0</v>
+      </c>
+      <c r="V8" s="25" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
-      <c r="W8" s="33" t="e" vm="5">
+      <c r="W8" s="25" t="e" vm="5">
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="23"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="33">
+      <c r="A9" s="39"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="25">
         <v>8</v>
       </c>
-      <c r="D9" s="30">
-        <v>1</v>
-      </c>
-      <c r="E9" s="31">
-        <v>2</v>
-      </c>
-      <c r="F9" s="33">
-        <v>0</v>
-      </c>
-      <c r="G9" s="30">
-        <v>1</v>
-      </c>
-      <c r="H9" s="33">
-        <v>0</v>
-      </c>
-      <c r="I9" s="33">
-        <v>0</v>
-      </c>
-      <c r="J9" s="31">
-        <v>1</v>
-      </c>
-      <c r="K9" s="31">
-        <v>1</v>
-      </c>
-      <c r="L9" s="33">
-        <v>0</v>
-      </c>
-      <c r="M9" s="33">
-        <v>0</v>
-      </c>
-      <c r="N9" s="33">
-        <v>0</v>
-      </c>
-      <c r="O9" s="33">
-        <v>0</v>
-      </c>
-      <c r="P9" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="33">
-        <v>0</v>
-      </c>
-      <c r="R9" s="33">
-        <v>0</v>
-      </c>
-      <c r="S9" s="33">
-        <v>0</v>
-      </c>
-      <c r="T9" s="33">
-        <v>0</v>
-      </c>
-      <c r="U9" s="33">
-        <v>0</v>
-      </c>
-      <c r="V9" s="33"/>
-      <c r="W9" s="33"/>
+      <c r="D9" s="23">
+        <v>1</v>
+      </c>
+      <c r="E9" s="24">
+        <v>2</v>
+      </c>
+      <c r="F9" s="25">
+        <v>0</v>
+      </c>
+      <c r="G9" s="23">
+        <v>1</v>
+      </c>
+      <c r="H9" s="25">
+        <v>0</v>
+      </c>
+      <c r="I9" s="25">
+        <v>0</v>
+      </c>
+      <c r="J9" s="24">
+        <v>1</v>
+      </c>
+      <c r="K9" s="24">
+        <v>1</v>
+      </c>
+      <c r="L9" s="25">
+        <v>0</v>
+      </c>
+      <c r="M9" s="25">
+        <v>0</v>
+      </c>
+      <c r="N9" s="25">
+        <v>0</v>
+      </c>
+      <c r="O9" s="25">
+        <v>0</v>
+      </c>
+      <c r="P9" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="25">
+        <v>0</v>
+      </c>
+      <c r="R9" s="25">
+        <v>0</v>
+      </c>
+      <c r="S9" s="25">
+        <v>0</v>
+      </c>
+      <c r="T9" s="25">
+        <v>0</v>
+      </c>
+      <c r="U9" s="25">
+        <v>0</v>
+      </c>
+      <c r="V9" s="25"/>
+      <c r="W9" s="25"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A10" s="23"/>
-      <c r="B10" s="17" t="s">
+      <c r="A10" s="39"/>
+      <c r="B10" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="34">
+      <c r="C10" s="26">
         <v>9</v>
       </c>
-      <c r="D10" s="19">
-        <v>2</v>
-      </c>
-      <c r="E10" s="20">
-        <v>1</v>
-      </c>
-      <c r="F10" s="34">
-        <v>0</v>
-      </c>
-      <c r="G10" s="19">
-        <v>1</v>
-      </c>
-      <c r="H10" s="19">
-        <v>1</v>
-      </c>
-      <c r="I10" s="20">
-        <v>1</v>
-      </c>
-      <c r="J10" s="34">
-        <v>0</v>
-      </c>
-      <c r="K10" s="34">
-        <v>0</v>
-      </c>
-      <c r="L10" s="34">
-        <v>0</v>
-      </c>
-      <c r="M10" s="34">
-        <v>0</v>
-      </c>
-      <c r="N10" s="34">
-        <v>0</v>
-      </c>
-      <c r="O10" s="34">
-        <v>0</v>
-      </c>
-      <c r="P10" s="34">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="34">
-        <v>0</v>
-      </c>
-      <c r="R10" s="34">
-        <v>0</v>
-      </c>
-      <c r="S10" s="34">
-        <v>0</v>
-      </c>
-      <c r="T10" s="34">
-        <v>0</v>
-      </c>
-      <c r="U10" s="35">
-        <v>0</v>
-      </c>
-      <c r="V10" s="33" t="e" vm="6">
+      <c r="D10" s="15">
+        <v>2</v>
+      </c>
+      <c r="E10" s="16">
+        <v>1</v>
+      </c>
+      <c r="F10" s="26">
+        <v>0</v>
+      </c>
+      <c r="G10" s="15">
+        <v>1</v>
+      </c>
+      <c r="H10" s="15">
+        <v>1</v>
+      </c>
+      <c r="I10" s="16">
+        <v>1</v>
+      </c>
+      <c r="J10" s="26">
+        <v>0</v>
+      </c>
+      <c r="K10" s="26">
+        <v>0</v>
+      </c>
+      <c r="L10" s="26">
+        <v>0</v>
+      </c>
+      <c r="M10" s="26">
+        <v>0</v>
+      </c>
+      <c r="N10" s="26">
+        <v>0</v>
+      </c>
+      <c r="O10" s="26">
+        <v>0</v>
+      </c>
+      <c r="P10" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="26">
+        <v>0</v>
+      </c>
+      <c r="R10" s="26">
+        <v>0</v>
+      </c>
+      <c r="S10" s="26">
+        <v>0</v>
+      </c>
+      <c r="T10" s="26">
+        <v>0</v>
+      </c>
+      <c r="U10" s="27">
+        <v>0</v>
+      </c>
+      <c r="V10" s="25" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
-      <c r="W10" s="33" t="e" vm="7">
+      <c r="W10" s="25" t="e" vm="7">
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="23"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="36">
+      <c r="A11" s="39"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="28">
         <v>10</v>
       </c>
-      <c r="D11" s="26">
-        <v>2</v>
-      </c>
-      <c r="E11" s="27">
-        <v>1</v>
-      </c>
-      <c r="F11" s="36">
-        <v>0</v>
-      </c>
-      <c r="G11" s="36">
-        <v>0</v>
-      </c>
-      <c r="H11" s="26">
-        <v>2</v>
-      </c>
-      <c r="I11" s="27">
-        <v>1</v>
-      </c>
-      <c r="J11" s="36">
-        <v>0</v>
-      </c>
-      <c r="K11" s="36">
-        <v>0</v>
-      </c>
-      <c r="L11" s="36">
-        <v>0</v>
-      </c>
-      <c r="M11" s="36">
-        <v>0</v>
-      </c>
-      <c r="N11" s="36">
-        <v>0</v>
-      </c>
-      <c r="O11" s="36">
-        <v>0</v>
-      </c>
-      <c r="P11" s="36">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="36">
-        <v>0</v>
-      </c>
-      <c r="R11" s="36">
-        <v>0</v>
-      </c>
-      <c r="S11" s="36">
-        <v>0</v>
-      </c>
-      <c r="T11" s="36">
-        <v>0</v>
-      </c>
-      <c r="U11" s="37">
-        <v>0</v>
-      </c>
-      <c r="V11" s="33"/>
-      <c r="W11" s="33"/>
+      <c r="D11" s="20">
+        <v>2</v>
+      </c>
+      <c r="E11" s="21">
+        <v>1</v>
+      </c>
+      <c r="F11" s="28">
+        <v>0</v>
+      </c>
+      <c r="G11" s="28">
+        <v>0</v>
+      </c>
+      <c r="H11" s="20">
+        <v>2</v>
+      </c>
+      <c r="I11" s="21">
+        <v>1</v>
+      </c>
+      <c r="J11" s="28">
+        <v>0</v>
+      </c>
+      <c r="K11" s="28">
+        <v>0</v>
+      </c>
+      <c r="L11" s="28">
+        <v>0</v>
+      </c>
+      <c r="M11" s="28">
+        <v>0</v>
+      </c>
+      <c r="N11" s="28">
+        <v>0</v>
+      </c>
+      <c r="O11" s="28">
+        <v>0</v>
+      </c>
+      <c r="P11" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="28">
+        <v>0</v>
+      </c>
+      <c r="R11" s="28">
+        <v>0</v>
+      </c>
+      <c r="S11" s="28">
+        <v>0</v>
+      </c>
+      <c r="T11" s="28">
+        <v>0</v>
+      </c>
+      <c r="U11" s="29">
+        <v>0</v>
+      </c>
+      <c r="V11" s="25"/>
+      <c r="W11" s="25"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A12" s="23"/>
-      <c r="B12" s="29" t="s">
+      <c r="A12" s="39"/>
+      <c r="B12" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="33">
+      <c r="C12" s="25">
         <v>11</v>
       </c>
-      <c r="D12" s="30">
-        <v>1</v>
-      </c>
-      <c r="E12" s="31">
-        <v>2</v>
-      </c>
-      <c r="F12" s="33">
-        <v>0</v>
-      </c>
-      <c r="G12" s="33">
-        <v>0</v>
-      </c>
-      <c r="H12" s="30">
-        <v>1</v>
-      </c>
-      <c r="I12" s="31">
-        <v>1</v>
-      </c>
-      <c r="J12" s="31">
-        <v>1</v>
-      </c>
-      <c r="K12" s="33">
-        <v>0</v>
-      </c>
-      <c r="L12" s="33">
-        <v>0</v>
-      </c>
-      <c r="M12" s="33">
-        <v>0</v>
-      </c>
-      <c r="N12" s="33">
-        <v>0</v>
-      </c>
-      <c r="O12" s="33">
-        <v>0</v>
-      </c>
-      <c r="P12" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="33">
-        <v>0</v>
-      </c>
-      <c r="R12" s="33">
-        <v>0</v>
-      </c>
-      <c r="S12" s="33">
-        <v>0</v>
-      </c>
-      <c r="T12" s="33">
-        <v>0</v>
-      </c>
-      <c r="U12" s="33">
-        <v>0</v>
-      </c>
-      <c r="V12" s="33" t="e" vm="8">
+      <c r="D12" s="23">
+        <v>1</v>
+      </c>
+      <c r="E12" s="24">
+        <v>2</v>
+      </c>
+      <c r="F12" s="25">
+        <v>0</v>
+      </c>
+      <c r="G12" s="25">
+        <v>0</v>
+      </c>
+      <c r="H12" s="23">
+        <v>1</v>
+      </c>
+      <c r="I12" s="24">
+        <v>1</v>
+      </c>
+      <c r="J12" s="24">
+        <v>1</v>
+      </c>
+      <c r="K12" s="25">
+        <v>0</v>
+      </c>
+      <c r="L12" s="25">
+        <v>0</v>
+      </c>
+      <c r="M12" s="25">
+        <v>0</v>
+      </c>
+      <c r="N12" s="25">
+        <v>0</v>
+      </c>
+      <c r="O12" s="25">
+        <v>0</v>
+      </c>
+      <c r="P12" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="25">
+        <v>0</v>
+      </c>
+      <c r="R12" s="25">
+        <v>0</v>
+      </c>
+      <c r="S12" s="25">
+        <v>0</v>
+      </c>
+      <c r="T12" s="25">
+        <v>0</v>
+      </c>
+      <c r="U12" s="25">
+        <v>0</v>
+      </c>
+      <c r="V12" s="25" t="e" vm="8">
         <v>#VALUE!</v>
       </c>
-      <c r="W12" s="33" t="e" vm="9">
+      <c r="W12" s="25" t="e" vm="9">
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="32"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="33">
+      <c r="A13" s="40"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="25">
         <v>12</v>
       </c>
-      <c r="D13" s="30">
-        <v>1</v>
-      </c>
-      <c r="E13" s="31">
-        <v>2</v>
-      </c>
-      <c r="F13" s="30">
-        <v>1</v>
-      </c>
-      <c r="G13" s="33">
-        <v>0</v>
-      </c>
-      <c r="H13" s="33">
-        <v>0</v>
-      </c>
-      <c r="I13" s="31">
-        <v>1</v>
-      </c>
-      <c r="J13" s="31">
-        <v>1</v>
-      </c>
-      <c r="K13" s="33">
-        <v>0</v>
-      </c>
-      <c r="L13" s="33">
-        <v>0</v>
-      </c>
-      <c r="M13" s="33">
-        <v>0</v>
-      </c>
-      <c r="N13" s="33">
-        <v>0</v>
-      </c>
-      <c r="O13" s="33">
-        <v>0</v>
-      </c>
-      <c r="P13" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="33">
-        <v>0</v>
-      </c>
-      <c r="R13" s="33">
-        <v>0</v>
-      </c>
-      <c r="S13" s="33">
-        <v>0</v>
-      </c>
-      <c r="T13" s="33">
-        <v>0</v>
-      </c>
-      <c r="U13" s="33">
-        <v>0</v>
-      </c>
-      <c r="V13" s="33"/>
-      <c r="W13" s="33"/>
+      <c r="D13" s="23">
+        <v>1</v>
+      </c>
+      <c r="E13" s="24">
+        <v>2</v>
+      </c>
+      <c r="F13" s="23">
+        <v>1</v>
+      </c>
+      <c r="G13" s="25">
+        <v>0</v>
+      </c>
+      <c r="H13" s="25">
+        <v>0</v>
+      </c>
+      <c r="I13" s="24">
+        <v>1</v>
+      </c>
+      <c r="J13" s="24">
+        <v>1</v>
+      </c>
+      <c r="K13" s="25">
+        <v>0</v>
+      </c>
+      <c r="L13" s="25">
+        <v>0</v>
+      </c>
+      <c r="M13" s="25">
+        <v>0</v>
+      </c>
+      <c r="N13" s="25">
+        <v>0</v>
+      </c>
+      <c r="O13" s="25">
+        <v>0</v>
+      </c>
+      <c r="P13" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="25">
+        <v>0</v>
+      </c>
+      <c r="R13" s="25">
+        <v>0</v>
+      </c>
+      <c r="S13" s="25">
+        <v>0</v>
+      </c>
+      <c r="T13" s="25">
+        <v>0</v>
+      </c>
+      <c r="U13" s="25">
+        <v>0</v>
+      </c>
+      <c r="V13" s="25"/>
+      <c r="W13" s="25"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="38">
+      <c r="C14" s="30">
         <v>13</v>
       </c>
-      <c r="D14" s="38">
-        <v>0</v>
-      </c>
-      <c r="E14" s="38">
-        <v>0</v>
-      </c>
-      <c r="F14" s="38">
-        <v>0</v>
-      </c>
-      <c r="G14" s="38">
-        <v>0</v>
-      </c>
-      <c r="H14" s="38">
-        <v>0</v>
-      </c>
-      <c r="I14" s="38">
-        <v>0</v>
-      </c>
-      <c r="J14" s="38">
-        <v>0</v>
-      </c>
-      <c r="K14" s="38">
-        <v>0</v>
-      </c>
-      <c r="L14" s="19">
-        <v>1</v>
-      </c>
-      <c r="M14" s="19">
-        <v>1</v>
-      </c>
-      <c r="N14" s="38">
-        <v>0</v>
-      </c>
-      <c r="O14" s="38">
-        <v>0</v>
-      </c>
-      <c r="P14" s="38">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="20">
-        <v>1</v>
-      </c>
-      <c r="R14" s="19">
-        <v>2</v>
-      </c>
-      <c r="S14" s="20">
-        <v>1</v>
-      </c>
-      <c r="T14" s="38">
-        <v>0</v>
-      </c>
-      <c r="U14" s="39">
-        <v>0</v>
-      </c>
-      <c r="V14" s="40" t="e" vm="10">
+      <c r="D14" s="30">
+        <v>0</v>
+      </c>
+      <c r="E14" s="30">
+        <v>0</v>
+      </c>
+      <c r="F14" s="30">
+        <v>0</v>
+      </c>
+      <c r="G14" s="30">
+        <v>0</v>
+      </c>
+      <c r="H14" s="30">
+        <v>0</v>
+      </c>
+      <c r="I14" s="30">
+        <v>0</v>
+      </c>
+      <c r="J14" s="30">
+        <v>0</v>
+      </c>
+      <c r="K14" s="30">
+        <v>0</v>
+      </c>
+      <c r="L14" s="15">
+        <v>1</v>
+      </c>
+      <c r="M14" s="15">
+        <v>1</v>
+      </c>
+      <c r="N14" s="30">
+        <v>0</v>
+      </c>
+      <c r="O14" s="30">
+        <v>0</v>
+      </c>
+      <c r="P14" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="16">
+        <v>1</v>
+      </c>
+      <c r="R14" s="15">
+        <v>2</v>
+      </c>
+      <c r="S14" s="16">
+        <v>1</v>
+      </c>
+      <c r="T14" s="30">
+        <v>0</v>
+      </c>
+      <c r="U14" s="31">
+        <v>0</v>
+      </c>
+      <c r="V14" s="32" t="e" vm="10">
         <v>#VALUE!</v>
       </c>
-      <c r="W14" s="40" t="e" vm="11">
+      <c r="W14" s="32" t="e" vm="11">
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="23"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="41">
+      <c r="A15" s="39"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="33">
         <v>14</v>
       </c>
-      <c r="D15" s="41">
-        <v>0</v>
-      </c>
-      <c r="E15" s="41">
-        <v>0</v>
-      </c>
-      <c r="F15" s="41">
-        <v>0</v>
-      </c>
-      <c r="G15" s="41">
-        <v>0</v>
-      </c>
-      <c r="H15" s="41">
-        <v>0</v>
-      </c>
-      <c r="I15" s="41">
-        <v>0</v>
-      </c>
-      <c r="J15" s="41">
-        <v>0</v>
-      </c>
-      <c r="K15" s="41">
-        <v>0</v>
-      </c>
-      <c r="L15" s="41">
-        <v>0</v>
-      </c>
-      <c r="M15" s="26">
-        <v>2</v>
-      </c>
-      <c r="N15" s="41">
-        <v>0</v>
-      </c>
-      <c r="O15" s="41">
-        <v>0</v>
-      </c>
-      <c r="P15" s="41">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="27">
-        <v>1</v>
-      </c>
-      <c r="R15" s="26">
-        <v>2</v>
-      </c>
-      <c r="S15" s="27">
-        <v>1</v>
-      </c>
-      <c r="T15" s="41">
-        <v>0</v>
-      </c>
-      <c r="U15" s="42">
-        <v>0</v>
-      </c>
-      <c r="V15" s="40"/>
-      <c r="W15" s="40"/>
+      <c r="D15" s="33">
+        <v>0</v>
+      </c>
+      <c r="E15" s="33">
+        <v>0</v>
+      </c>
+      <c r="F15" s="33">
+        <v>0</v>
+      </c>
+      <c r="G15" s="33">
+        <v>0</v>
+      </c>
+      <c r="H15" s="33">
+        <v>0</v>
+      </c>
+      <c r="I15" s="33">
+        <v>0</v>
+      </c>
+      <c r="J15" s="33">
+        <v>0</v>
+      </c>
+      <c r="K15" s="33">
+        <v>0</v>
+      </c>
+      <c r="L15" s="33">
+        <v>0</v>
+      </c>
+      <c r="M15" s="20">
+        <v>2</v>
+      </c>
+      <c r="N15" s="33">
+        <v>0</v>
+      </c>
+      <c r="O15" s="33">
+        <v>0</v>
+      </c>
+      <c r="P15" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="21">
+        <v>1</v>
+      </c>
+      <c r="R15" s="20">
+        <v>2</v>
+      </c>
+      <c r="S15" s="21">
+        <v>1</v>
+      </c>
+      <c r="T15" s="33">
+        <v>0</v>
+      </c>
+      <c r="U15" s="34">
+        <v>0</v>
+      </c>
+      <c r="V15" s="32"/>
+      <c r="W15" s="32"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A16" s="23"/>
-      <c r="B16" s="29" t="s">
+      <c r="A16" s="39"/>
+      <c r="B16" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="40">
+      <c r="C16" s="32">
         <v>15</v>
       </c>
-      <c r="D16" s="40">
-        <v>0</v>
-      </c>
-      <c r="E16" s="40">
-        <v>0</v>
-      </c>
-      <c r="F16" s="40">
-        <v>0</v>
-      </c>
-      <c r="G16" s="40">
-        <v>0</v>
-      </c>
-      <c r="H16" s="40">
-        <v>0</v>
-      </c>
-      <c r="I16" s="40">
-        <v>0</v>
-      </c>
-      <c r="J16" s="40">
-        <v>0</v>
-      </c>
-      <c r="K16" s="40">
-        <v>0</v>
-      </c>
-      <c r="L16" s="40">
-        <v>0</v>
-      </c>
-      <c r="M16" s="30">
-        <v>1</v>
-      </c>
-      <c r="N16" s="40">
-        <v>0</v>
-      </c>
-      <c r="O16" s="31">
-        <v>1</v>
-      </c>
-      <c r="P16" s="40">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="31">
-        <v>1</v>
-      </c>
-      <c r="R16" s="30">
-        <v>1</v>
-      </c>
-      <c r="S16" s="31">
-        <v>2</v>
-      </c>
-      <c r="T16" s="40">
-        <v>0</v>
-      </c>
-      <c r="U16" s="40">
-        <v>0</v>
-      </c>
-      <c r="V16" s="40" t="e" vm="12">
+      <c r="D16" s="32">
+        <v>0</v>
+      </c>
+      <c r="E16" s="32">
+        <v>0</v>
+      </c>
+      <c r="F16" s="32">
+        <v>0</v>
+      </c>
+      <c r="G16" s="32">
+        <v>0</v>
+      </c>
+      <c r="H16" s="32">
+        <v>0</v>
+      </c>
+      <c r="I16" s="32">
+        <v>0</v>
+      </c>
+      <c r="J16" s="32">
+        <v>0</v>
+      </c>
+      <c r="K16" s="32">
+        <v>0</v>
+      </c>
+      <c r="L16" s="32">
+        <v>0</v>
+      </c>
+      <c r="M16" s="23">
+        <v>1</v>
+      </c>
+      <c r="N16" s="32">
+        <v>0</v>
+      </c>
+      <c r="O16" s="24">
+        <v>1</v>
+      </c>
+      <c r="P16" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="24">
+        <v>1</v>
+      </c>
+      <c r="R16" s="23">
+        <v>1</v>
+      </c>
+      <c r="S16" s="24">
+        <v>2</v>
+      </c>
+      <c r="T16" s="32">
+        <v>0</v>
+      </c>
+      <c r="U16" s="32">
+        <v>0</v>
+      </c>
+      <c r="V16" s="32" t="e" vm="12">
         <v>#VALUE!</v>
       </c>
-      <c r="W16" s="40" t="e" vm="13">
+      <c r="W16" s="32" t="e" vm="13">
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="23"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="40">
+      <c r="A17" s="39"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="32">
         <v>16</v>
       </c>
-      <c r="D17" s="40">
-        <v>0</v>
-      </c>
-      <c r="E17" s="40">
-        <v>0</v>
-      </c>
-      <c r="F17" s="40">
-        <v>0</v>
-      </c>
-      <c r="G17" s="40">
-        <v>0</v>
-      </c>
-      <c r="H17" s="40">
-        <v>0</v>
-      </c>
-      <c r="I17" s="40">
-        <v>0</v>
-      </c>
-      <c r="J17" s="40">
-        <v>0</v>
-      </c>
-      <c r="K17" s="40">
-        <v>0</v>
-      </c>
-      <c r="L17" s="40">
-        <v>0</v>
-      </c>
-      <c r="M17" s="40">
-        <v>0</v>
-      </c>
-      <c r="N17" s="30">
-        <v>1</v>
-      </c>
-      <c r="O17" s="31">
-        <v>1</v>
-      </c>
-      <c r="P17" s="40">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="31">
-        <v>1</v>
-      </c>
-      <c r="R17" s="30">
-        <v>1</v>
-      </c>
-      <c r="S17" s="31">
-        <v>2</v>
-      </c>
-      <c r="T17" s="40">
-        <v>0</v>
-      </c>
-      <c r="U17" s="40">
-        <v>0</v>
-      </c>
-      <c r="V17" s="40"/>
-      <c r="W17" s="40"/>
+      <c r="D17" s="32">
+        <v>0</v>
+      </c>
+      <c r="E17" s="32">
+        <v>0</v>
+      </c>
+      <c r="F17" s="32">
+        <v>0</v>
+      </c>
+      <c r="G17" s="32">
+        <v>0</v>
+      </c>
+      <c r="H17" s="32">
+        <v>0</v>
+      </c>
+      <c r="I17" s="32">
+        <v>0</v>
+      </c>
+      <c r="J17" s="32">
+        <v>0</v>
+      </c>
+      <c r="K17" s="32">
+        <v>0</v>
+      </c>
+      <c r="L17" s="32">
+        <v>0</v>
+      </c>
+      <c r="M17" s="32">
+        <v>0</v>
+      </c>
+      <c r="N17" s="23">
+        <v>1</v>
+      </c>
+      <c r="O17" s="24">
+        <v>1</v>
+      </c>
+      <c r="P17" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="24">
+        <v>1</v>
+      </c>
+      <c r="R17" s="23">
+        <v>1</v>
+      </c>
+      <c r="S17" s="24">
+        <v>2</v>
+      </c>
+      <c r="T17" s="32">
+        <v>0</v>
+      </c>
+      <c r="U17" s="32">
+        <v>0</v>
+      </c>
+      <c r="V17" s="32"/>
+      <c r="W17" s="32"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A18" s="23"/>
-      <c r="B18" s="17" t="s">
+      <c r="A18" s="39"/>
+      <c r="B18" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="38">
+      <c r="C18" s="30">
         <v>17</v>
       </c>
-      <c r="D18" s="38">
-        <v>0</v>
-      </c>
-      <c r="E18" s="38">
-        <v>0</v>
-      </c>
-      <c r="F18" s="38">
-        <v>0</v>
-      </c>
-      <c r="G18" s="38">
-        <v>0</v>
-      </c>
-      <c r="H18" s="38">
-        <v>0</v>
-      </c>
-      <c r="I18" s="38">
-        <v>0</v>
-      </c>
-      <c r="J18" s="38">
-        <v>0</v>
-      </c>
-      <c r="K18" s="38">
-        <v>0</v>
-      </c>
-      <c r="L18" s="19">
-        <v>1</v>
-      </c>
-      <c r="M18" s="38">
-        <v>0</v>
-      </c>
-      <c r="N18" s="19">
-        <v>1</v>
-      </c>
-      <c r="O18" s="38">
-        <v>0</v>
-      </c>
-      <c r="P18" s="20">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="38">
-        <v>0</v>
-      </c>
-      <c r="R18" s="19">
-        <v>2</v>
-      </c>
-      <c r="S18" s="20">
-        <v>1</v>
-      </c>
-      <c r="T18" s="38">
-        <v>0</v>
-      </c>
-      <c r="U18" s="39">
-        <v>0</v>
-      </c>
-      <c r="V18" s="40" t="e" vm="14">
+      <c r="D18" s="30">
+        <v>0</v>
+      </c>
+      <c r="E18" s="30">
+        <v>0</v>
+      </c>
+      <c r="F18" s="30">
+        <v>0</v>
+      </c>
+      <c r="G18" s="30">
+        <v>0</v>
+      </c>
+      <c r="H18" s="30">
+        <v>0</v>
+      </c>
+      <c r="I18" s="30">
+        <v>0</v>
+      </c>
+      <c r="J18" s="30">
+        <v>0</v>
+      </c>
+      <c r="K18" s="30">
+        <v>0</v>
+      </c>
+      <c r="L18" s="15">
+        <v>1</v>
+      </c>
+      <c r="M18" s="30">
+        <v>0</v>
+      </c>
+      <c r="N18" s="15">
+        <v>1</v>
+      </c>
+      <c r="O18" s="30">
+        <v>0</v>
+      </c>
+      <c r="P18" s="16">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="30">
+        <v>0</v>
+      </c>
+      <c r="R18" s="15">
+        <v>2</v>
+      </c>
+      <c r="S18" s="16">
+        <v>1</v>
+      </c>
+      <c r="T18" s="30">
+        <v>0</v>
+      </c>
+      <c r="U18" s="31">
+        <v>0</v>
+      </c>
+      <c r="V18" s="32" t="e" vm="14">
         <v>#VALUE!</v>
       </c>
-      <c r="W18" s="40" t="e" vm="15">
+      <c r="W18" s="32" t="e" vm="15">
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="19" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="32"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="41">
+      <c r="A19" s="40"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="33">
         <v>18</v>
       </c>
-      <c r="D19" s="41">
-        <v>0</v>
-      </c>
-      <c r="E19" s="41">
-        <v>0</v>
-      </c>
-      <c r="F19" s="41">
-        <v>0</v>
-      </c>
-      <c r="G19" s="41">
-        <v>0</v>
-      </c>
-      <c r="H19" s="41">
-        <v>0</v>
-      </c>
-      <c r="I19" s="41">
-        <v>0</v>
-      </c>
-      <c r="J19" s="41">
-        <v>0</v>
-      </c>
-      <c r="K19" s="41">
-        <v>0</v>
-      </c>
-      <c r="L19" s="26">
-        <v>2</v>
-      </c>
-      <c r="M19" s="41">
-        <v>0</v>
-      </c>
-      <c r="N19" s="41">
-        <v>0</v>
-      </c>
-      <c r="O19" s="41">
-        <v>0</v>
-      </c>
-      <c r="P19" s="27">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="41">
-        <v>0</v>
-      </c>
-      <c r="R19" s="26">
-        <v>2</v>
-      </c>
-      <c r="S19" s="27">
-        <v>1</v>
-      </c>
-      <c r="T19" s="41">
-        <v>0</v>
-      </c>
-      <c r="U19" s="42">
-        <v>0</v>
-      </c>
-      <c r="V19" s="40"/>
-      <c r="W19" s="40"/>
+      <c r="D19" s="33">
+        <v>0</v>
+      </c>
+      <c r="E19" s="33">
+        <v>0</v>
+      </c>
+      <c r="F19" s="33">
+        <v>0</v>
+      </c>
+      <c r="G19" s="33">
+        <v>0</v>
+      </c>
+      <c r="H19" s="33">
+        <v>0</v>
+      </c>
+      <c r="I19" s="33">
+        <v>0</v>
+      </c>
+      <c r="J19" s="33">
+        <v>0</v>
+      </c>
+      <c r="K19" s="33">
+        <v>0</v>
+      </c>
+      <c r="L19" s="20">
+        <v>2</v>
+      </c>
+      <c r="M19" s="33">
+        <v>0</v>
+      </c>
+      <c r="N19" s="33">
+        <v>0</v>
+      </c>
+      <c r="O19" s="33">
+        <v>0</v>
+      </c>
+      <c r="P19" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="33">
+        <v>0</v>
+      </c>
+      <c r="R19" s="20">
+        <v>2</v>
+      </c>
+      <c r="S19" s="21">
+        <v>1</v>
+      </c>
+      <c r="T19" s="33">
+        <v>0</v>
+      </c>
+      <c r="U19" s="34">
+        <v>0</v>
+      </c>
+      <c r="V19" s="32"/>
+      <c r="W19" s="32"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="C20" s="43">
+      <c r="C20" s="35">
         <v>19</v>
       </c>
-      <c r="D20" s="43">
-        <v>0</v>
-      </c>
-      <c r="E20" s="43">
-        <v>0</v>
-      </c>
-      <c r="F20" s="43">
-        <v>0</v>
-      </c>
-      <c r="G20" s="43">
-        <v>0</v>
-      </c>
-      <c r="H20" s="43">
-        <v>0</v>
-      </c>
-      <c r="I20" s="43">
-        <v>0</v>
-      </c>
-      <c r="J20" s="43">
-        <v>0</v>
-      </c>
-      <c r="K20" s="43">
-        <v>0</v>
-      </c>
-      <c r="L20" s="43">
-        <v>0</v>
-      </c>
-      <c r="M20" s="43">
-        <v>0</v>
-      </c>
-      <c r="N20" s="43">
-        <v>0</v>
-      </c>
-      <c r="O20" s="43">
-        <v>0</v>
-      </c>
-      <c r="P20" s="43">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="43">
-        <v>0</v>
-      </c>
-      <c r="R20" s="43">
-        <v>0</v>
-      </c>
-      <c r="S20" s="43">
-        <v>0</v>
-      </c>
-      <c r="T20" s="44">
-        <v>2</v>
-      </c>
-      <c r="U20" s="45">
-        <v>1</v>
-      </c>
-      <c r="V20" s="43" t="e" vm="16">
+      <c r="D20" s="35">
+        <v>0</v>
+      </c>
+      <c r="E20" s="35">
+        <v>0</v>
+      </c>
+      <c r="F20" s="35">
+        <v>0</v>
+      </c>
+      <c r="G20" s="35">
+        <v>0</v>
+      </c>
+      <c r="H20" s="35">
+        <v>0</v>
+      </c>
+      <c r="I20" s="35">
+        <v>0</v>
+      </c>
+      <c r="J20" s="35">
+        <v>0</v>
+      </c>
+      <c r="K20" s="35">
+        <v>0</v>
+      </c>
+      <c r="L20" s="35">
+        <v>0</v>
+      </c>
+      <c r="M20" s="35">
+        <v>0</v>
+      </c>
+      <c r="N20" s="35">
+        <v>0</v>
+      </c>
+      <c r="O20" s="35">
+        <v>0</v>
+      </c>
+      <c r="P20" s="35">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="35">
+        <v>0</v>
+      </c>
+      <c r="R20" s="35">
+        <v>0</v>
+      </c>
+      <c r="S20" s="35">
+        <v>0</v>
+      </c>
+      <c r="T20" s="36">
+        <v>2</v>
+      </c>
+      <c r="U20" s="37">
+        <v>1</v>
+      </c>
+      <c r="V20" s="35" t="e" vm="16">
         <v>#VALUE!</v>
       </c>
-      <c r="W20" s="43"/>
+      <c r="W20" s="35"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="C21" s="43">
+      <c r="C21" s="35">
         <v>20</v>
       </c>
-      <c r="D21" s="43">
-        <v>0</v>
-      </c>
-      <c r="E21" s="43">
-        <v>0</v>
-      </c>
-      <c r="F21" s="43">
-        <v>0</v>
-      </c>
-      <c r="G21" s="43">
-        <v>0</v>
-      </c>
-      <c r="H21" s="43">
-        <v>0</v>
-      </c>
-      <c r="I21" s="43">
-        <v>0</v>
-      </c>
-      <c r="J21" s="43">
-        <v>0</v>
-      </c>
-      <c r="K21" s="43">
-        <v>0</v>
-      </c>
-      <c r="L21" s="43">
-        <v>0</v>
-      </c>
-      <c r="M21" s="43">
-        <v>0</v>
-      </c>
-      <c r="N21" s="43">
-        <v>0</v>
-      </c>
-      <c r="O21" s="43">
-        <v>0</v>
-      </c>
-      <c r="P21" s="43">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="43">
-        <v>0</v>
-      </c>
-      <c r="R21" s="43">
-        <v>0</v>
-      </c>
-      <c r="S21" s="43">
-        <v>0</v>
-      </c>
-      <c r="T21" s="44">
-        <v>2</v>
-      </c>
-      <c r="U21" s="45">
-        <v>1</v>
-      </c>
-      <c r="V21" s="43" t="e" vm="17">
+      <c r="D21" s="35">
+        <v>0</v>
+      </c>
+      <c r="E21" s="35">
+        <v>0</v>
+      </c>
+      <c r="F21" s="35">
+        <v>0</v>
+      </c>
+      <c r="G21" s="35">
+        <v>0</v>
+      </c>
+      <c r="H21" s="35">
+        <v>0</v>
+      </c>
+      <c r="I21" s="35">
+        <v>0</v>
+      </c>
+      <c r="J21" s="35">
+        <v>0</v>
+      </c>
+      <c r="K21" s="35">
+        <v>0</v>
+      </c>
+      <c r="L21" s="35">
+        <v>0</v>
+      </c>
+      <c r="M21" s="35">
+        <v>0</v>
+      </c>
+      <c r="N21" s="35">
+        <v>0</v>
+      </c>
+      <c r="O21" s="35">
+        <v>0</v>
+      </c>
+      <c r="P21" s="35">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="35">
+        <v>0</v>
+      </c>
+      <c r="R21" s="35">
+        <v>0</v>
+      </c>
+      <c r="S21" s="35">
+        <v>0</v>
+      </c>
+      <c r="T21" s="36">
+        <v>2</v>
+      </c>
+      <c r="U21" s="37">
+        <v>1</v>
+      </c>
+      <c r="V21" s="35" t="e" vm="17">
         <v>#VALUE!</v>
       </c>
-      <c r="W21" s="43"/>
+      <c r="W21" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="12">
